--- a/graphs/STM32F/pointer_chase/pointer_chase.xlsx
+++ b/graphs/STM32F/pointer_chase/pointer_chase.xlsx
@@ -1,132 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="pointer_chase" sheetId="1" r:id="rId1"/>
+    <sheet name="pointer_chase CF_DR" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="pointer_chase CC_DR" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="pointer_chase CF_DC" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="pointer_chase CC_DC" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t xml:space="preserve">CF DR 24 </t>
-  </si>
-  <si>
-    <t>CC DR 24</t>
-  </si>
-  <si>
-    <t>CF DC 24</t>
-  </si>
-  <si>
-    <t>CC DC 24</t>
-  </si>
-  <si>
-    <t>CF DR 48</t>
-  </si>
-  <si>
-    <t>CC DR 48</t>
-  </si>
-  <si>
-    <t>CF DC 48</t>
-  </si>
-  <si>
-    <t>CC DC 48</t>
-  </si>
-  <si>
-    <t>CF DR 72</t>
-  </si>
-  <si>
-    <t>CC DR 72</t>
-  </si>
-  <si>
-    <t>CF DC 72</t>
-  </si>
-  <si>
-    <t>CC DC 72</t>
-  </si>
-  <si>
-    <t>intensity</t>
-  </si>
-  <si>
-    <t>runtime</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>(2361.34, 2563.84)</t>
-  </si>
-  <si>
-    <t>(2759.02, 2961.7)</t>
-  </si>
-  <si>
-    <t>(3156.92, 3359.68)</t>
-  </si>
-  <si>
-    <t>(3554.86, 3757.32)</t>
-  </si>
-  <si>
-    <t>(4732.64, 4894.64)</t>
-  </si>
-  <si>
-    <t>(5089.88, 5211.62)</t>
-  </si>
-  <si>
-    <t>(5406.92, 5528.66)</t>
-  </si>
-  <si>
-    <t>(5723.9, 5825.32)</t>
-  </si>
-  <si>
-    <t>(6800.82, 6989.8)</t>
-  </si>
-  <si>
-    <t>(7185.02, 7279.94)</t>
-  </si>
-  <si>
-    <t>(7475.14, 7570.0)</t>
-  </si>
-  <si>
-    <t>(7765.2, 7833.02)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -149,21 +70,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -451,175 +448,425 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>16201.44474359206</v>
       </c>
-      <c r="C2">
-        <v>13180.90117751717</v>
-      </c>
-      <c r="D2">
-        <v>14000.23321353794</v>
-      </c>
-      <c r="E2">
-        <v>11406.61351732335</v>
-      </c>
-      <c r="F2">
+      <c r="C2" t="n">
         <v>22170.5303663089</v>
       </c>
-      <c r="G2">
-        <v>23403.89860857291</v>
-      </c>
-      <c r="H2">
-        <v>23475.50095253749</v>
-      </c>
-      <c r="I2">
-        <v>22891.41153024513</v>
-      </c>
-      <c r="J2">
+      <c r="D2" t="n">
         <v>27773.18745545577</v>
       </c>
-      <c r="K2">
-        <v>32008.2737632909</v>
-      </c>
-      <c r="L2">
-        <v>31549.9363030006</v>
-      </c>
-      <c r="M2">
-        <v>33847.6952181844</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>0.2025</v>
       </c>
-      <c r="C3">
-        <v>0.20268</v>
-      </c>
-      <c r="D3">
-        <v>0.20276</v>
-      </c>
-      <c r="E3">
-        <v>0.20246</v>
-      </c>
-      <c r="F3">
+      <c r="C3" t="n">
         <v>0.162</v>
       </c>
-      <c r="G3">
-        <v>0.12174</v>
-      </c>
-      <c r="H3">
-        <v>0.12174</v>
-      </c>
-      <c r="I3">
-        <v>0.10142</v>
-      </c>
-      <c r="J3">
+      <c r="D3" t="n">
         <v>0.18898</v>
       </c>
-      <c r="K3">
-        <v>0.09492</v>
-      </c>
-      <c r="L3">
-        <v>0.09486</v>
-      </c>
-      <c r="M3">
-        <v>0.06782000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" t="s">
-        <v>26</v>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>(2361.34, 2563.84)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(4732.64, 4894.64)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(6800.82, 6989.8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10826.6154499054</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11852.36553382874</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17320.3039855957</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>13180.90117751717</v>
+      </c>
+      <c r="C2" t="n">
+        <v>23403.89860857291</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32008.2737632909</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.20268</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.12174</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09492</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>(2759.02, 2961.7)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(5089.88, 5211.62)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(7185.02, 7279.94)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8815.966667175293</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9402.329034805298</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10026.14364051819</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>14000.23321353794</v>
+      </c>
+      <c r="C2" t="n">
+        <v>23475.50095253749</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31549.9363030006</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.20276</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.12174</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09486</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>(3156.92, 3359.68)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(5406.92, 5528.66)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(7475.14, 7570.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9367.668045043943</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9431.094703674316</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9876.328960418701</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11406.61351732335</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22891.41153024513</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33847.6952181844</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.20246</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.10142</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06782000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>(3554.86, 3757.32)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(5723.9, 5825.32)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(7765.2, 7833.02)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7620.963809967041</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7661.43495941162</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7575.317276000977</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/graphs/STM32F/pointer_chase/pointer_chase.xlsx
+++ b/graphs/STM32F/pointer_chase/pointer_chase.xlsx
@@ -6,10 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="pointer_chase CF_DR" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="pointer_chase CC_DR" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="pointer_chase CF_DC" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="pointer_chase CC_DC" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="CF_DR" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="CC_DR" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CF_DC" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="CC_DC" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="data_RAM code_FLASH" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="data_RAM code_CCM" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="data_CCM code_FLASH" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="data_CCM code_CCM" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -485,13 +489,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16201.44474359206</v>
+        <v>16201</v>
       </c>
       <c r="C2" t="n">
-        <v>22170.5303663089</v>
+        <v>22171</v>
       </c>
       <c r="D2" t="n">
-        <v>27773.18745545577</v>
+        <v>27773</v>
       </c>
     </row>
     <row r="3">
@@ -539,13 +543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10826.6154499054</v>
+        <v>10.826</v>
       </c>
       <c r="C5" t="n">
-        <v>11852.36553382874</v>
+        <v>11.853</v>
       </c>
       <c r="D5" t="n">
-        <v>17320.3039855957</v>
+        <v>17.32</v>
       </c>
     </row>
   </sheetData>
@@ -591,13 +595,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13180.90117751717</v>
+        <v>13181</v>
       </c>
       <c r="C2" t="n">
-        <v>23403.89860857291</v>
+        <v>23404</v>
       </c>
       <c r="D2" t="n">
-        <v>32008.2737632909</v>
+        <v>32008</v>
       </c>
     </row>
     <row r="3">
@@ -645,13 +649,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8815.966667175293</v>
+        <v>8.816000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>9402.329034805298</v>
+        <v>9.401999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>10026.14364051819</v>
+        <v>10.026</v>
       </c>
     </row>
   </sheetData>
@@ -697,13 +701,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14000.23321353794</v>
+        <v>14000</v>
       </c>
       <c r="C2" t="n">
-        <v>23475.50095253749</v>
+        <v>23476</v>
       </c>
       <c r="D2" t="n">
-        <v>31549.9363030006</v>
+        <v>31550</v>
       </c>
     </row>
     <row r="3">
@@ -751,13 +755,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9367.668045043943</v>
+        <v>9.368</v>
       </c>
       <c r="C5" t="n">
-        <v>9431.094703674316</v>
+        <v>9.430999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>9876.328960418701</v>
+        <v>9.875999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +807,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11406.61351732335</v>
+        <v>11407</v>
       </c>
       <c r="C2" t="n">
-        <v>22891.41153024513</v>
+        <v>22891</v>
       </c>
       <c r="D2" t="n">
-        <v>33847.6952181844</v>
+        <v>33848</v>
       </c>
     </row>
     <row r="3">
@@ -857,13 +861,437 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7620.963809967041</v>
+        <v>7.621</v>
       </c>
       <c r="C5" t="n">
-        <v>7661.43495941162</v>
+        <v>7.661</v>
       </c>
       <c r="D5" t="n">
-        <v>7575.317276000977</v>
+        <v>7.575</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>16201</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22171</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27773</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2025</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.18898</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>(2361.34, 2563.84)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(4732.64, 4894.64)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(6800.82, 6989.8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10.826</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11.853</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>13181</v>
+      </c>
+      <c r="C2" t="n">
+        <v>23404</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32008</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.20268</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.12174</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09492</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>(2759.02, 2961.7)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(5089.88, 5211.62)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(7185.02, 7279.94)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8.816000000000001</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.401999999999999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.026</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>14000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>23476</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31550</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.20276</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.12174</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09486</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>(3156.92, 3359.68)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(5406.92, 5528.66)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(7475.14, 7570.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.368</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.430999999999999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.875999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11407</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22891</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33848</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.20246</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.10142</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06782000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>(3554.86, 3757.32)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(5723.9, 5825.32)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(7765.2, 7833.02)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.621</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7.661</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.575</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/STM32F/pointer_chase/pointer_chase.xlsx
+++ b/graphs/STM32F/pointer_chase/pointer_chase.xlsx
@@ -6,14 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="CF_DR" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="CC_DR" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="CF_DC" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="CC_DC" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="data_RAM code_FLASH" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="data_RAM code_CCM" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="data_CCM code_FLASH" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="data_CCM code_CCM" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="ro_FLASH-code_FLASH" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ro_FLASH-code_CCM" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ro_CCM-code_FLASH" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ro_CCL-code_CCM" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -873,428 +869,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>intensity</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>16201</v>
-      </c>
-      <c r="C2" t="n">
-        <v>22171</v>
-      </c>
-      <c r="D2" t="n">
-        <v>27773</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>runtime</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.2025</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.162</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.18898</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>timestamp</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>(2361.34, 2563.84)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>(4732.64, 4894.64)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>(6800.82, 6989.8)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>energy</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>10.826</v>
-      </c>
-      <c r="C5" t="n">
-        <v>11.853</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17.32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>intensity</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>13181</v>
-      </c>
-      <c r="C2" t="n">
-        <v>23404</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32008</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>runtime</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.20268</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.12174</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.09492</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>timestamp</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>(2759.02, 2961.7)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>(5089.88, 5211.62)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>(7185.02, 7279.94)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>energy</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>8.816000000000001</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9.401999999999999</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.026</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>intensity</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>14000</v>
-      </c>
-      <c r="C2" t="n">
-        <v>23476</v>
-      </c>
-      <c r="D2" t="n">
-        <v>31550</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>runtime</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.20276</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.12174</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.09486</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>timestamp</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>(3156.92, 3359.68)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>(5406.92, 5528.66)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>(7475.14, 7570.0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>energy</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9.368</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9.430999999999999</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.875999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>intensity</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>11407</v>
-      </c>
-      <c r="C2" t="n">
-        <v>22891</v>
-      </c>
-      <c r="D2" t="n">
-        <v>33848</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>runtime</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.20246</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.10142</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.06782000000000001</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>timestamp</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>(3554.86, 3757.32)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>(5723.9, 5825.32)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>(7765.2, 7833.02)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>energy</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>7.621</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7.661</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.575</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/graphs/STM32F/pointer_chase/pointer_chase.xlsx
+++ b/graphs/STM32F/pointer_chase/pointer_chase.xlsx
@@ -9,7 +9,8 @@
     <sheet name="ro_FLASH-code_FLASH" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ro_FLASH-code_CCM" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ro_CCM-code_FLASH" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ro_CCL-code_CCM" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ro_CCM-code_CCM" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ro_RAM-code_CCM" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -485,13 +486,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16201</v>
+        <v>15948</v>
       </c>
       <c r="C2" t="n">
-        <v>22171</v>
+        <v>22051</v>
       </c>
       <c r="D2" t="n">
-        <v>27773</v>
+        <v>27695</v>
       </c>
     </row>
     <row r="3">
@@ -501,13 +502,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2025</v>
+        <v>0.20262</v>
       </c>
       <c r="C3" t="n">
-        <v>0.162</v>
+        <v>0.16208</v>
       </c>
       <c r="D3" t="n">
-        <v>0.18898</v>
+        <v>0.18926</v>
       </c>
     </row>
     <row r="4">
@@ -518,17 +519,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(2361.34, 2563.84)</t>
+          <t>(4937.4, 5140.02)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(4732.64, 4894.64)</t>
+          <t>(8115.6, 8277.68)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(6800.82, 6989.8)</t>
+          <t>(10808.46, 10997.72)</t>
         </is>
       </c>
     </row>
@@ -539,13 +540,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.826</v>
+        <v>10.664</v>
       </c>
       <c r="C5" t="n">
-        <v>11.853</v>
+        <v>11.794</v>
       </c>
       <c r="D5" t="n">
-        <v>17.32</v>
+        <v>17.297</v>
       </c>
     </row>
   </sheetData>
@@ -591,13 +592,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13181</v>
+        <v>13689</v>
       </c>
       <c r="C2" t="n">
-        <v>23404</v>
+        <v>23286</v>
       </c>
       <c r="D2" t="n">
-        <v>32008</v>
+        <v>31922</v>
       </c>
     </row>
     <row r="3">
@@ -607,13 +608,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.20268</v>
+        <v>0.20258</v>
       </c>
       <c r="C3" t="n">
-        <v>0.12174</v>
+        <v>0.12178</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09492</v>
+        <v>0.0948</v>
       </c>
     </row>
     <row r="4">
@@ -624,17 +625,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(2759.02, 2961.7)</t>
+          <t>(5336.42, 5539.0)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(5089.88, 5211.62)</t>
+          <t>(8474.0, 8595.78)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(7185.02, 7279.94)</t>
+          <t>(11194.08, 11288.88)</t>
         </is>
       </c>
     </row>
@@ -645,13 +646,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.816000000000001</v>
+        <v>9.151</v>
       </c>
       <c r="C5" t="n">
-        <v>9.401999999999999</v>
+        <v>9.358000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>10.026</v>
+        <v>9.986000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -697,13 +698,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14000</v>
+        <v>13989</v>
       </c>
       <c r="C2" t="n">
-        <v>23476</v>
+        <v>23348</v>
       </c>
       <c r="D2" t="n">
-        <v>31550</v>
+        <v>31420</v>
       </c>
     </row>
     <row r="3">
@@ -713,13 +714,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.20276</v>
+        <v>0.2027</v>
       </c>
       <c r="C3" t="n">
-        <v>0.12174</v>
+        <v>0.12186</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09486</v>
+        <v>0.09497999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -730,17 +731,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(3156.92, 3359.68)</t>
+          <t>(5735.34, 5938.04)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(5406.92, 5528.66)</t>
+          <t>(8792.12, 8913.98)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(7475.14, 7570.0)</t>
+          <t>(11485.3, 11580.28)</t>
         </is>
       </c>
     </row>
@@ -751,13 +752,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.368</v>
+        <v>9.356999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>9.430999999999999</v>
+        <v>9.388999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>9.875999999999999</v>
+        <v>9.848000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +804,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11407</v>
+        <v>11837</v>
       </c>
       <c r="C2" t="n">
-        <v>22891</v>
+        <v>22800</v>
       </c>
       <c r="D2" t="n">
-        <v>33848</v>
+        <v>33660</v>
       </c>
     </row>
     <row r="3">
@@ -819,13 +820,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.20246</v>
+        <v>0.20258</v>
       </c>
       <c r="C3" t="n">
-        <v>0.10142</v>
+        <v>0.1015</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06782000000000001</v>
+        <v>0.0678</v>
       </c>
     </row>
     <row r="4">
@@ -836,17 +837,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(3554.86, 3757.32)</t>
+          <t>(6134.36, 6336.94)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(5723.9, 5825.32)</t>
+          <t>(9110.26, 9211.76)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(7765.2, 7833.02)</t>
+          <t>(11776.66, 11844.46)</t>
         </is>
       </c>
     </row>
@@ -857,13 +858,119 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.621</v>
+        <v>7.913</v>
       </c>
       <c r="C5" t="n">
-        <v>7.661</v>
+        <v>7.637</v>
       </c>
       <c r="D5" t="n">
-        <v>7.575</v>
+        <v>7.531</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11434</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22037</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32561</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.20258</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.10154</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06802</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>(6932.28, 7134.86)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(9725.94, 9827.48)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(12331.96, 12399.98)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.644</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7.384</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.309</v>
       </c>
     </row>
   </sheetData>
